--- a/T_Result.xlsx
+++ b/T_Result.xlsx
@@ -18,6 +18,9 @@
     <x:sheet name="Stock" sheetId="9" r:id="rId4"/>
     <x:sheet name="Task Monitor" sheetId="8" r:id="rId8"/>
     <x:sheet name="Task Monitor Classic" sheetId="10" r:id="rId10"/>
+    <x:sheet name="모니터" sheetId="11" r:id="rId11"/>
+    <x:sheet name="키보드" sheetId="12" r:id="rId12"/>
+    <x:sheet name="마우스" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1224">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -3441,6 +3444,297 @@
   </x:si>
   <x:si>
     <x:t>138000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 32UP830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC Q32V3S 75 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤큐 XL2411K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC 27B2H2 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제우스랩 P15A 포터블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 Neo G7 S43CG700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 2760G 리얼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 3278 QHD New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 2460G PLUS 리얼 144 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 G52A S32AG520 165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC 24B1XH2 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 K380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 AN02 RGB BAR 축교환 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 K570 레인보우 무빙LED 기계식 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G913 Wireless 클릭키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G913 텐키리스 클릭키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 레트로 SPK 100 저소음 무선 블루투스 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX CK87 게이트론 LED 게이밍 기계식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 MX KEYS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 AN94BT 무선 블루투스 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엠스톤 그루브 GV10 수제풀윤활 퀵스왑 104키 풀배열 기계식키보드 저소음밀키축 38g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제닉스 STORMX TITAN SE 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 K840 스퀘어 레트로 축교환 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 K580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 K120 NEW Keyboard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이코스 씽크웨이 X VGN TV99 유무선 99배열 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 K517 레트로 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 K380S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 GK898B 염료승화 EDITION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>듀가드 K610W 핫스왑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX CK01 TKL 기계식 텐키리스 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 GK893B 염료승화 EDITION 무접점 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 K1924 RETRO GTMX NON-LED 가스켓 게이밍 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키크론 K10 PRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이패드 블루투스키보드 무선 휴대용 애플 태블릿 PC 핸드폰 미니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 GK7 RAINBOW 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 K270 Wireless Keyboard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QSENN SEM-DT35 NEW USB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QSENN K1000 멤브레인 무선 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COX CK420 교체축 레인보우 LED 게이밍 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 KN01C 텐키리스 PBT 무접점 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 MX KEYS S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 GK898B PRO 염료승화 EDITION 8K 무접점키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 오피스프로 저소음 슬림 무선 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커세어 K70 RGB PRO 게이밍 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHERRY MX BOARD 3.0S 게이밍 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 슈퍼히어로 SPK100 저소음 무선 블루투스 기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키크론 K8 Retro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이패드 블루투스키보드 애플 갤럭시탭 태블릿 노트북 맥북 미니 무선 키보드 휴대용 38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 AN08 가스켓 아이스큐브 광축 LED 게이밍 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 AN01T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G304 LIGHTSPEED WIRELESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 페블 M350 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G102 2세대 LIGHTSYNC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해외로지텍G G304 LIGHTSPEED 게이밍 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 저소음 3MODE 무선 마우스 APM01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 시그니처 M650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAZER DeathAdder V2 Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 쓸떼많은 다쿠아즈 무소음 무선 블루투스 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 LIFT 무선 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 MX MASTER 3S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 M331 무소음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TG삼보 TG-TM618G HEALING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청연엠엔에스 NAVEE NV117-PPT350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 크리스탈 RGB 무소음 게이밍 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 오피스프로 휠마스터 무소음 무선 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 MELLO 멀티 페어링 무소음 무선 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제닉스 STORMX VM3 무선 버티컬마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 버티컬 도톰쉬폰 무소음 인체공학 블루투스 무선 마우스 OP50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 M170 Wireless Mouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAZER 오로치 v2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 H150A 게이밍마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 움직이는 마카롱 무소음 블루투스 무선 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TG삼보 TG-TM215UN 무소음 유선 버티컬 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이리버 EQWEAR-MVM7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앱코 A661 3325 프로페셔널 게이밍 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G PRO X SUPERLIGHT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 도톰한 휘낭시에 오피스프로 OP04 3WAY 무소음 블루투스 무선 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 MX ANYWHERE 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 M720 Triathlon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥스틸 TRON G10 PRO reborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청연엠엔에스 NAVEE NV21-PPT550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G502 X PLUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제닉스 TITAN GX AIR WIRELESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 M240 Silent bluetooth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAZER 데스에더 V3 프로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 MX VERTICAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이크로소프트 Arc 아크 블루투스 마우스 무선마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G703 HERO WIRELESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로지텍 로지텍G G502 HERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지클릭커 슈퍼히어로 에어 게이밍 마우스</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -9166,6 +9460,955 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="3" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="3" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>1075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="3" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>1077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="3" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="3" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>1081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="3" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="3" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>1085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="3" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="3" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>1089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="3" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="3" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>1093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="3" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="3" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="3" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="3" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="s">
+        <x:v>1101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="3" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>1103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="3" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="s">
+        <x:v>1105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="3" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="3" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>1108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="3" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s">
+        <x:v>1110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="3" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s">
+        <x:v>1112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="3" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="3" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>1116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="3" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="3" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s">
+        <x:v>1120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="3" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>1122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="3" t="s">
+        <x:v>1123</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="3" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="3" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="3" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="n">
+        <x:v>455000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="3" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="n">
+        <x:v>372410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="3" t="s">
+        <x:v>1127</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="n">
+        <x:v>579990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="3" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="n">
+        <x:v>194000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="3" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="n">
+        <x:v>309990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="3" t="s">
+        <x:v>1128</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="n">
+        <x:v>524000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="3" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="n">
+        <x:v>394470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="3" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="n">
+        <x:v>167880</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="3" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="n">
+        <x:v>297660</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="3" t="s">
+        <x:v>1129</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="n">
+        <x:v>229000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="3" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="n">
+        <x:v>230050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="3" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="n">
+        <x:v>161900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="3" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="n">
+        <x:v>172890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="3" t="s">
+        <x:v>1130</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="n">
+        <x:v>299000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="3" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="n">
+        <x:v>295790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="3" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="n">
+        <x:v>249000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="3" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="n">
+        <x:v>138900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="3" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="n">
+        <x:v>408870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="3" t="s">
+        <x:v>1131</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="n">
+        <x:v>567990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="3" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="n">
+        <x:v>398940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="3" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="n">
+        <x:v>177210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="3" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="n">
+        <x:v>148900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="3" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="n">
+        <x:v>309000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="3" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="n">
+        <x:v>338980</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="3" t="s">
+        <x:v>1132</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="n">
+        <x:v>282000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="3" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="n">
+        <x:v>169000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="3" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="n">
+        <x:v>159000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="n">
+        <x:v>1024900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="3" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="n">
+        <x:v>169000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="n">
+        <x:v>229000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="3" t="s">
+        <x:v>1138</x:v>
+      </x:c>
+      <x:c r="B32" s="3" t="n">
+        <x:v>139000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="3" t="s">
+        <x:v>1139</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="n">
+        <x:v>539000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="3" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="n">
+        <x:v>359000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="3" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="n">
+        <x:v>258990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="3" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="n">
+        <x:v>338000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="3" t="s">
+        <x:v>1140</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="n">
+        <x:v>518990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="3" t="s">
+        <x:v>1141</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="n">
+        <x:v>299000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="3" t="s">
+        <x:v>1142</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="n">
+        <x:v>139000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="3" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="n">
+        <x:v>139000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="3" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="n">
+        <x:v>498880</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="3" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="3" t="s">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="n">
+        <x:v>24500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="3" t="s">
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="n">
+        <x:v>42900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="3" t="s">
+        <x:v>1145</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="n">
+        <x:v>35000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="3" t="s">
+        <x:v>1146</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="n">
+        <x:v>198780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="3" t="s">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="n">
+        <x:v>178960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="3" t="s">
+        <x:v>1148</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="n">
+        <x:v>59800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="3" t="s">
+        <x:v>1149</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="n">
+        <x:v>42900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="3" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="n">
+        <x:v>96580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="3" t="s">
+        <x:v>1151</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="n">
+        <x:v>48000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="3" t="s">
+        <x:v>1152</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="n">
+        <x:v>164000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="3" t="s">
+        <x:v>1153</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="n">
+        <x:v>30300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="3" t="s">
+        <x:v>1154</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="n">
+        <x:v>52900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="3" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="n">
+        <x:v>36900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="3" t="s">
+        <x:v>1156</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="n">
+        <x:v>9900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="3" t="s">
+        <x:v>1157</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="n">
+        <x:v>299000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="3" t="s">
+        <x:v>1158</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="n">
+        <x:v>42900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="3" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="n">
+        <x:v>37107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="3" t="s">
+        <x:v>1160</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="n">
+        <x:v>166500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="3" t="s">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="n">
+        <x:v>222990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="3" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="n">
+        <x:v>37000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="3" t="s">
+        <x:v>1163</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="n">
+        <x:v>160420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="3" t="s">
+        <x:v>1164</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="n">
+        <x:v>52000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="3" t="s">
+        <x:v>1165</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="n">
+        <x:v>158260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="3" t="s">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="n">
+        <x:v>16500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="n">
+        <x:v>13900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="3" t="s">
+        <x:v>1168</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="n">
+        <x:v>19890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="3" t="s">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="n">
+        <x:v>14900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="3" t="s">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="n">
+        <x:v>12400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="3" t="s">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="n">
+        <x:v>37900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="3" t="s">
+        <x:v>1172</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="n">
+        <x:v>153000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="3" t="s">
+        <x:v>1173</x:v>
+      </x:c>
+      <x:c r="B32" s="3" t="n">
+        <x:v>132500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="3" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="n">
+        <x:v>199000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="3" t="s">
+        <x:v>1175</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="n">
+        <x:v>18900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="3" t="s">
+        <x:v>1176</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="n">
+        <x:v>182500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="3" t="s">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="n">
+        <x:v>114000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="3" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="n">
+        <x:v>59800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="3" t="s">
+        <x:v>1179</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="n">
+        <x:v>91200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="3" t="s">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="n">
+        <x:v>19900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="3" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="n">
+        <x:v>70000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="3" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="n">
+        <x:v>38500</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B42"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
@@ -9181,218 +10424,327 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="3" t="s">
-        <x:v>1074</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>1075</x:v>
+        <x:v>1183</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="n">
+        <x:v>27000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="3" t="s">
-        <x:v>1076</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>1077</x:v>
+        <x:v>1184</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="n">
+        <x:v>17010</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="3" t="s">
-        <x:v>1078</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>1079</x:v>
+        <x:v>1185</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="n">
+        <x:v>20270</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="3" t="s">
-        <x:v>1080</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>1081</x:v>
+        <x:v>1186</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="n">
+        <x:v>16900</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="3" t="s">
-        <x:v>1082</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>1083</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="3" t="s">
-        <x:v>1084</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>1085</x:v>
+        <x:v>1188</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="n">
+        <x:v>18900</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="3" t="s">
-        <x:v>1086</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>1087</x:v>
+        <x:v>1189</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="n">
+        <x:v>36550</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="3" t="s">
-        <x:v>1088</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>1089</x:v>
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="n">
+        <x:v>69000</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="3" t="s">
-        <x:v>1090</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>1091</x:v>
+        <x:v>1191</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="n">
+        <x:v>14900</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="3" t="s">
-        <x:v>1092</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>1093</x:v>
+        <x:v>1192</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="n">
+        <x:v>70500</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="3" t="s">
-        <x:v>1094</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>1095</x:v>
+        <x:v>1193</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="n">
+        <x:v>112230</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="3" t="s">
-        <x:v>1096</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>1097</x:v>
+        <x:v>1194</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="n">
+        <x:v>22950</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="3" t="s">
-        <x:v>1098</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>1099</x:v>
+        <x:v>1195</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="n">
+        <x:v>32290</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="3" t="s">
-        <x:v>1100</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>1101</x:v>
+        <x:v>1196</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="n">
+        <x:v>18300</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="3" t="s">
-        <x:v>1102</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>1103</x:v>
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="n">
+        <x:v>17400</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="3" t="s">
-        <x:v>1104</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>1105</x:v>
+        <x:v>1198</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="n">
+        <x:v>39800</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="3" t="s">
-        <x:v>1106</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>1083</x:v>
+        <x:v>1199</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="n">
+        <x:v>12900</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="3" t="s">
-        <x:v>1107</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>1108</x:v>
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="n">
+        <x:v>38280</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="3" t="s">
-        <x:v>1109</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>1110</x:v>
+        <x:v>1201</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="n">
+        <x:v>29800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="3" t="s">
-        <x:v>1111</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s">
-        <x:v>1112</x:v>
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="n">
+        <x:v>11990</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="3" t="s">
-        <x:v>1113</x:v>
-      </x:c>
-      <x:c r="B22" s="3" t="s">
-        <x:v>1114</x:v>
+        <x:v>1203</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="n">
+        <x:v>52900</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="3" t="s">
-        <x:v>1115</x:v>
-      </x:c>
-      <x:c r="B23" s="3" t="s">
-        <x:v>1116</x:v>
+        <x:v>1204</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="n">
+        <x:v>62000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="3" t="s">
-        <x:v>1117</x:v>
-      </x:c>
-      <x:c r="B24" s="3" t="s">
-        <x:v>1118</x:v>
+        <x:v>1205</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="n">
+        <x:v>11900</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="3" t="s">
-        <x:v>1119</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s">
-        <x:v>1120</x:v>
+        <x:v>1206</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="n">
+        <x:v>22000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="3" t="s">
-        <x:v>1121</x:v>
-      </x:c>
-      <x:c r="B26" s="3" t="s">
-        <x:v>1122</x:v>
+        <x:v>1207</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="n">
+        <x:v>25700</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="3" t="s">
-        <x:v>1123</x:v>
-      </x:c>
-      <x:c r="B27" s="3" t="s">
-        <x:v>1124</x:v>
+        <x:v>1208</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="n">
+        <x:v>32900</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="3" t="s">
-        <x:v>1125</x:v>
-      </x:c>
-      <x:c r="B28" s="3" t="s">
-        <x:v>1126</x:v>
+        <x:v>1209</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="n">
+        <x:v>116770</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="3" t="s">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="n">
+        <x:v>12300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="3" t="s">
+        <x:v>1211</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="n">
+        <x:v>73040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="3" t="s">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="n">
+        <x:v>39470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="3" t="s">
+        <x:v>1213</x:v>
+      </x:c>
+      <x:c r="B32" s="3" t="n">
+        <x:v>26400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="3" t="s">
+        <x:v>1214</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="n">
+        <x:v>89000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="3" t="s">
+        <x:v>1215</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="n">
+        <x:v>157830</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="3" t="s">
+        <x:v>1216</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="n">
+        <x:v>40400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="3" t="s">
+        <x:v>1217</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="n">
+        <x:v>19900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="3" t="s">
+        <x:v>1218</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="n">
+        <x:v>185480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="3" t="s">
+        <x:v>1219</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="n">
+        <x:v>96840</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="3" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="n">
+        <x:v>62740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="3" t="s">
+        <x:v>1221</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="n">
+        <x:v>76740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="3" t="s">
+        <x:v>1222</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="n">
+        <x:v>45720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="3" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+      <x:c r="B42" s="3" t="n">
+        <x:v>12900</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
